--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H2">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I2">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J2">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.2005051851692</v>
+        <v>42.23928166666666</v>
       </c>
       <c r="N2">
-        <v>41.2005051851692</v>
+        <v>126.717845</v>
       </c>
       <c r="O2">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946526</v>
       </c>
       <c r="P2">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946528</v>
       </c>
       <c r="Q2">
-        <v>38.71654202888947</v>
+        <v>43.37857365154056</v>
       </c>
       <c r="R2">
-        <v>38.71654202888947</v>
+        <v>390.407162863865</v>
       </c>
       <c r="S2">
-        <v>0.1596876292795892</v>
+        <v>0.1483283078008475</v>
       </c>
       <c r="T2">
-        <v>0.1596876292795892</v>
+        <v>0.1483283078008475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H3">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I3">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J3">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.52835713368666</v>
+        <v>4.624984</v>
       </c>
       <c r="N3">
-        <v>4.52835713368666</v>
+        <v>13.874952</v>
       </c>
       <c r="O3">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="P3">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="Q3">
-        <v>4.255344163869893</v>
+        <v>4.749730610109334</v>
       </c>
       <c r="R3">
-        <v>4.255344163869893</v>
+        <v>42.747575490984</v>
       </c>
       <c r="S3">
-        <v>0.01755130457647977</v>
+        <v>0.01624118647991516</v>
       </c>
       <c r="T3">
-        <v>0.01755130457647977</v>
+        <v>0.01624118647991516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H4">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I4">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J4">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.81800968777916</v>
+        <v>2.151907</v>
       </c>
       <c r="N4">
-        <v>1.81800968777916</v>
+        <v>6.455721</v>
       </c>
       <c r="O4">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="P4">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="Q4">
-        <v>1.708402558888211</v>
+        <v>2.209948952906334</v>
       </c>
       <c r="R4">
-        <v>1.708402558888211</v>
+        <v>19.889540576157</v>
       </c>
       <c r="S4">
-        <v>0.007046361585713843</v>
+        <v>0.007556679736499584</v>
       </c>
       <c r="T4">
-        <v>0.007046361585713843</v>
+        <v>0.007556679736499584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H5">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I5">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J5">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.517061084447789</v>
+        <v>8.864288333333333</v>
       </c>
       <c r="N5">
-        <v>8.517061084447789</v>
+        <v>26.592865</v>
       </c>
       <c r="O5">
-        <v>0.1519169386602037</v>
+        <v>0.1531481985489599</v>
       </c>
       <c r="P5">
-        <v>0.1519169386602037</v>
+        <v>0.15314819854896</v>
       </c>
       <c r="Q5">
-        <v>8.003570634792633</v>
+        <v>9.103378873022777</v>
       </c>
       <c r="R5">
-        <v>8.003570634792633</v>
+        <v>81.93040985720499</v>
       </c>
       <c r="S5">
-        <v>0.03301098583360318</v>
+        <v>0.03112801251494124</v>
       </c>
       <c r="T5">
-        <v>0.03301098583360318</v>
+        <v>0.03112801251494125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H6">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I6">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J6">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.2005051851692</v>
+        <v>42.23928166666666</v>
       </c>
       <c r="N6">
-        <v>41.2005051851692</v>
+        <v>126.717845</v>
       </c>
       <c r="O6">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946526</v>
       </c>
       <c r="P6">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946528</v>
       </c>
       <c r="Q6">
-        <v>55.74759981437227</v>
+        <v>57.36226800082556</v>
       </c>
       <c r="R6">
-        <v>55.74759981437227</v>
+        <v>516.2604120074301</v>
       </c>
       <c r="S6">
-        <v>0.2299327777191915</v>
+        <v>0.196144027522191</v>
       </c>
       <c r="T6">
-        <v>0.2299327777191915</v>
+        <v>0.196144027522191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H7">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I7">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J7">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.52835713368666</v>
+        <v>4.624984</v>
       </c>
       <c r="N7">
-        <v>4.52835713368666</v>
+        <v>13.874952</v>
       </c>
       <c r="O7">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="P7">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="Q7">
-        <v>6.127231697056801</v>
+        <v>6.280873188165335</v>
       </c>
       <c r="R7">
-        <v>6.127231697056801</v>
+        <v>56.52785869348801</v>
       </c>
       <c r="S7">
-        <v>0.02527196522405491</v>
+        <v>0.0214767617533038</v>
       </c>
       <c r="T7">
-        <v>0.02527196522405491</v>
+        <v>0.0214767617533038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H8">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I8">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J8">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.81800968777916</v>
+        <v>2.151907</v>
       </c>
       <c r="N8">
-        <v>1.81800968777916</v>
+        <v>6.455721</v>
       </c>
       <c r="O8">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="P8">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="Q8">
-        <v>2.459913442261553</v>
+        <v>2.922357132419334</v>
       </c>
       <c r="R8">
-        <v>2.459913442261553</v>
+        <v>26.301214191774</v>
       </c>
       <c r="S8">
-        <v>0.01014599252006103</v>
+        <v>0.009992681910741036</v>
       </c>
       <c r="T8">
-        <v>0.01014599252006103</v>
+        <v>0.009992681910741036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H9">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I9">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J9">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.517061084447789</v>
+        <v>8.864288333333333</v>
       </c>
       <c r="N9">
-        <v>8.517061084447789</v>
+        <v>26.592865</v>
       </c>
       <c r="O9">
-        <v>0.1519169386602037</v>
+        <v>0.1531481985489599</v>
       </c>
       <c r="P9">
-        <v>0.1519169386602037</v>
+        <v>0.15314819854896</v>
       </c>
       <c r="Q9">
-        <v>11.52426920001149</v>
+        <v>12.03798130436778</v>
       </c>
       <c r="R9">
-        <v>11.52426920001149</v>
+        <v>108.34183173931</v>
       </c>
       <c r="S9">
-        <v>0.04753222088781694</v>
+        <v>0.04116256589159884</v>
       </c>
       <c r="T9">
-        <v>0.04753222088781694</v>
+        <v>0.04116256589159885</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H10">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I10">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J10">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.2005051851692</v>
+        <v>42.23928166666666</v>
       </c>
       <c r="N10">
-        <v>41.2005051851692</v>
+        <v>126.717845</v>
       </c>
       <c r="O10">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946526</v>
       </c>
       <c r="P10">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946528</v>
       </c>
       <c r="Q10">
-        <v>83.70983242656408</v>
+        <v>112.6794789404778</v>
       </c>
       <c r="R10">
-        <v>83.70983242656408</v>
+        <v>1014.1153104643</v>
       </c>
       <c r="S10">
-        <v>0.3452639101295568</v>
+        <v>0.3852952051716142</v>
       </c>
       <c r="T10">
-        <v>0.3452639101295568</v>
+        <v>0.3852952051716143</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H11">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I11">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J11">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.52835713368666</v>
+        <v>4.624984</v>
       </c>
       <c r="N11">
-        <v>4.52835713368666</v>
+        <v>13.874952</v>
       </c>
       <c r="O11">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="P11">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="Q11">
-        <v>9.200567204816656</v>
+        <v>12.33782315098667</v>
       </c>
       <c r="R11">
-        <v>9.200567204816656</v>
+        <v>111.04040835888</v>
       </c>
       <c r="S11">
-        <v>0.03794803688481296</v>
+        <v>0.04218784242729428</v>
       </c>
       <c r="T11">
-        <v>0.03794803688481296</v>
+        <v>0.04218784242729428</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H12">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I12">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J12">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.81800968777916</v>
+        <v>2.151907</v>
       </c>
       <c r="N12">
-        <v>1.81800968777916</v>
+        <v>6.455721</v>
       </c>
       <c r="O12">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="P12">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="Q12">
-        <v>3.693772336768462</v>
+        <v>5.740527535526666</v>
       </c>
       <c r="R12">
-        <v>3.693772336768462</v>
+        <v>51.66474781973999</v>
       </c>
       <c r="S12">
-        <v>0.01523508342033622</v>
+        <v>0.0196291086486335</v>
       </c>
       <c r="T12">
-        <v>0.01523508342033622</v>
+        <v>0.0196291086486335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H13">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I13">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J13">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.517061084447789</v>
+        <v>8.864288333333333</v>
       </c>
       <c r="N13">
-        <v>8.517061084447789</v>
+        <v>26.592865</v>
       </c>
       <c r="O13">
-        <v>0.1519169386602037</v>
+        <v>0.1531481985489599</v>
       </c>
       <c r="P13">
-        <v>0.1519169386602037</v>
+        <v>0.15314819854896</v>
       </c>
       <c r="Q13">
-        <v>17.30468480766534</v>
+        <v>23.64678922478888</v>
       </c>
       <c r="R13">
-        <v>17.30468480766534</v>
+        <v>212.8211030231</v>
       </c>
       <c r="S13">
-        <v>0.07137373193878353</v>
+        <v>0.08085762014241987</v>
       </c>
       <c r="T13">
-        <v>0.07137373193878353</v>
+        <v>0.08085762014241989</v>
       </c>
     </row>
   </sheetData>
